--- a/datasets/data/BUZZI/diagnosis-regexes.xlsx
+++ b/datasets/data/BUZZI/diagnosis-regexes.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A8342C-6F68-9541-A6F9-AD3814D69CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ds" sheetId="1" r:id="rId1"/>
@@ -14,34 +15,44 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-regex pattern for recoding diagnoses from free text to OrphaNet</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>regex pattern for recoding diagnoses from free text to OrphaNet</t>
         </r>
       </text>
     </comment>
@@ -379,9 +390,6 @@
     <t>ORPHA:26791</t>
   </si>
   <si>
-    <t>regex_pattern</t>
-  </si>
-  <si>
     <t>\bVLCAD(.*)</t>
   </si>
   <si>
@@ -476,13 +484,16 @@
   </si>
   <si>
     <t>ORPHA:69723</t>
+  </si>
+  <si>
+    <t>regex pattern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,16 +518,16 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
@@ -626,10 +637,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,17 +650,25 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -687,7 +706,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -721,6 +740,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -755,9 +775,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -930,23 +951,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.140625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,10 +982,10 @@
         <v>73</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -977,7 +999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -991,7 +1013,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1019,7 +1041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1033,7 +1055,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1047,21 +1069,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="C8" s="5">
         <v>276710</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1089,7 +1111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1103,10 +1125,10 @@
         <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1120,10 +1142,10 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1137,10 +1159,10 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1154,10 +1176,10 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1171,7 +1193,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1185,7 +1207,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+    <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1199,10 +1221,10 @@
         <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -1230,7 +1252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30.75" thickBot="1">
+    <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -1244,15 +1266,15 @@
         <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30.75" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="5">
         <v>277410</v>
@@ -1261,24 +1283,24 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="5">
         <v>277380</v>
       </c>
       <c r="D22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" t="s">
         <v>137</v>
       </c>
-      <c r="E22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1">
+    </row>
+    <row r="23" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -1292,10 +1314,10 @@
         <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
@@ -1309,7 +1331,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1">
+    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -1323,7 +1345,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
@@ -1337,10 +1359,10 @@
         <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
@@ -1354,7 +1376,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+    <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -1368,10 +1390,10 @@
         <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1385,10 +1407,10 @@
         <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -1402,10 +1424,10 @@
         <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -1419,10 +1441,10 @@
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>58</v>
       </c>
@@ -1436,10 +1458,10 @@
         <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>56</v>
       </c>
@@ -1453,7 +1475,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1">
+    <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>61</v>
       </c>
@@ -1467,10 +1489,10 @@
         <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
@@ -1484,10 +1506,10 @@
         <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>65</v>
       </c>
@@ -1501,10 +1523,10 @@
         <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>67</v>
       </c>
@@ -1518,10 +1540,10 @@
         <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30.75" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="32" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>69</v>
       </c>
@@ -1535,10 +1557,10 @@
         <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>71</v>
       </c>
@@ -1552,24 +1574,24 @@
         <v>108</v>
       </c>
       <c r="E39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" s="9" customFormat="1">
-      <c r="A40" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="E40" t="s">
         <v>121</v>
-      </c>
-      <c r="D40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/data/BUZZI/diagnosis-regexes.xlsx
+++ b/datasets/data/BUZZI/diagnosis-regexes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A8342C-6F68-9541-A6F9-AD3814D69CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A791DFA-EC43-6640-B127-4E8ED5E12E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ds" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -647,7 +647,18 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,8 +966,8 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -987,614 +998,617 @@
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C2" s="5">
-        <v>261600</v>
+        <v>610006</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>261600</v>
+      <c r="A3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5">
-        <v>261640</v>
+        <v>207800</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5">
-        <v>261630</v>
+        <v>207900</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5">
-        <v>276700</v>
+        <v>261640</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5">
-        <v>276600</v>
+        <v>261630</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5">
-        <v>276710</v>
+        <v>203750</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5">
-        <v>248600</v>
+        <v>212138</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5">
-        <v>236200</v>
+        <v>251100</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5">
-        <v>236250</v>
+        <v>251110</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5">
-        <v>231670</v>
+        <v>277400</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="C13" s="5">
-        <v>243500</v>
+        <v>277410</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="C14" s="5">
-        <v>203750</v>
+        <v>277380</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5">
-        <v>246450</v>
+        <v>215700</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5">
-        <v>606054</v>
+        <v>605814</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C17" s="5">
-        <v>251000</v>
+        <v>255120</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="5">
-        <v>251100</v>
+        <v>60</v>
+      </c>
+      <c r="C18" s="12">
+        <v>600649</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5">
-        <v>251110</v>
+        <v>212140</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5">
-        <v>277400</v>
+        <v>231670</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5">
-        <v>277410</v>
+        <v>231680</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5">
-        <v>277380</v>
+        <v>236200</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5">
-        <v>610006</v>
+        <v>246450</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="8">
-        <v>248360</v>
+        <v>6</v>
+      </c>
+      <c r="C24" s="5">
+        <v>261600</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C25" s="5">
-        <v>253270</v>
+        <v>243500</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C26" s="5">
-        <v>215700</v>
+        <v>609016</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C27" s="5">
-        <v>605814</v>
+        <v>231530</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="5">
-        <v>207900</v>
+        <v>43</v>
+      </c>
+      <c r="C28" s="8">
+        <v>248360</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C29" s="5">
-        <v>207800</v>
+        <v>201450</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C30" s="5">
-        <v>212140</v>
+        <v>253270</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C31" s="5">
-        <v>255120</v>
+        <v>248600</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C32" s="5">
-        <v>212138</v>
+        <v>236250</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="9">
-        <v>600649</v>
+        <v>32</v>
+      </c>
+      <c r="C33" s="15">
+        <v>251000</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="8">
-        <v>201475</v>
+        <v>30</v>
+      </c>
+      <c r="C34" s="5">
+        <v>606054</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C35" s="5">
-        <v>609015</v>
+        <v>261600</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="5">
-        <v>609016</v>
+        <v>609015</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C37" s="5">
-        <v>201450</v>
+        <v>276700</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="32" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C38" s="5">
-        <v>231530</v>
+        <v>276600</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C39" s="5">
-        <v>231680</v>
+        <v>276710</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>120</v>
+      <c r="A40" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="14">
+        <v>201475</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
+    <sortCondition ref="B1:B40"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
